--- a/Positions.xlsx
+++ b/Positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Carbon_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE7025D-BF4A-4EB0-BDA3-CC3EB6153588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8948DF67-A58B-4C32-8C92-DD93E6AE5593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4245" yWindow="1365" windowWidth="21600" windowHeight="12975" activeTab="2" xr2:uid="{9F644C9E-5C6D-48A7-9FE6-B69B38AA7E21}"/>
   </bookViews>
@@ -554,7 +554,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -589,11 +589,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -636,7 +639,7 @@
         <tr r="A1" s="7"/>
       </tp>
       <tp>
-        <v>61.51</v>
+        <v>63.78</v>
         <stp/>
         <stp>BDP|1633375409542931071|22</stp>
         <stp>MZBZ4 Comdty</stp>
@@ -646,7 +649,7 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp>
-        <v>37.53</v>
+        <v>38.5</v>
         <stp/>
         <stp>BDP|16215067856613361158|22</stp>
         <stp>UKEZ4 Comdty</stp>
@@ -1268,7 +1271,7 @@
             <v>UK</v>
           </cell>
           <cell r="S36">
-            <v>86192.459798957876</v>
+            <v>85960.747659706176</v>
           </cell>
         </row>
         <row r="37">
@@ -1292,7 +1295,7 @@
             <v>NZ</v>
           </cell>
           <cell r="S39">
-            <v>-1086495.9911314978</v>
+            <v>-1085221.7523948094</v>
           </cell>
         </row>
         <row r="40">
@@ -1308,7 +1311,7 @@
             <v>FX</v>
           </cell>
           <cell r="S41">
-            <v>34463.319875066809</v>
+            <v>-442721.10916431429</v>
           </cell>
         </row>
         <row r="42">
@@ -1316,7 +1319,7 @@
             <v>Exchange PnL</v>
           </cell>
           <cell r="S42">
-            <v>-204646.9852242826</v>
+            <v>-682063.12640291546</v>
           </cell>
         </row>
         <row r="43">
@@ -1324,7 +1327,7 @@
             <v>Total</v>
           </cell>
           <cell r="S43">
-            <v>-1369764.704833613</v>
+            <v>-1845906.6072755575</v>
           </cell>
         </row>
         <row r="46">
@@ -1394,13 +1397,13 @@
             <v>30.851539458811843</v>
           </cell>
           <cell r="AC47">
-            <v>14.47760466672487</v>
+            <v>14.369228674074897</v>
           </cell>
           <cell r="AD47">
-            <v>8.5906558923900075E-2</v>
+            <v>8.5263482336795898E-2</v>
           </cell>
           <cell r="AE47">
-            <v>-8.0760107742766582E-2</v>
+            <v>-8.1403184329870759E-2</v>
           </cell>
         </row>
         <row r="48">
@@ -1414,10 +1417,10 @@
             <v>9.9783496268631335E-3</v>
           </cell>
           <cell r="U48">
-            <v>5.0111895231952251E-3</v>
+            <v>4.9977178871922195E-3</v>
           </cell>
           <cell r="V48">
-            <v>-4.9671601036679084E-3</v>
+            <v>-4.980631739670914E-3</v>
           </cell>
           <cell r="X48" t="str">
             <v>UKA</v>
@@ -1429,19 +1432,19 @@
             <v>0.3540999984741211</v>
           </cell>
           <cell r="AA48">
-            <v>14820.176118837133</v>
+            <v>14860.124755931089</v>
           </cell>
           <cell r="AB48">
-            <v>41.853081566506262</v>
+            <v>41.965898955001322</v>
           </cell>
           <cell r="AC48">
-            <v>26.915682485425755</v>
+            <v>27.246932069218534</v>
           </cell>
           <cell r="AD48">
-            <v>1.298548196915048E-2</v>
+            <v>1.3109954828417992E-2</v>
           </cell>
           <cell r="AE48">
-            <v>-0.15368118469751618</v>
+            <v>-0.15355671183824868</v>
           </cell>
         </row>
         <row r="49">
@@ -1476,13 +1479,13 @@
             <v>80.298786181139107</v>
           </cell>
           <cell r="AC49">
-            <v>-45.914673192516773</v>
+            <v>-44.282328319591521</v>
           </cell>
           <cell r="AD49">
-            <v>-9.6767843210972843E-2</v>
+            <v>-9.3327581487511205E-2</v>
           </cell>
           <cell r="AE49">
-            <v>-0.2634345098776395</v>
+            <v>-0.25999424815417788</v>
           </cell>
         </row>
         <row r="50">
@@ -1537,10 +1540,10 @@
             <v>-2.9712858926342067E-2</v>
           </cell>
           <cell r="U51">
-            <v>-6.316837157741266E-2</v>
+            <v>-6.3094287929930784E-2</v>
           </cell>
           <cell r="V51">
-            <v>-3.3455512651070593E-2</v>
+            <v>-3.3381429003588717E-2</v>
           </cell>
           <cell r="X51" t="str">
             <v>NZU</v>
@@ -1552,19 +1555,19 @@
             <v>0.66749999999999998</v>
           </cell>
           <cell r="AA51">
-            <v>31162.807551545455</v>
+            <v>31200.116093455232</v>
           </cell>
           <cell r="AB51">
-            <v>46.685854009805922</v>
+            <v>46.741746956487241</v>
           </cell>
           <cell r="AC51">
-            <v>38.052316793796749</v>
+            <v>36.796925103236639</v>
           </cell>
           <cell r="AD51">
-            <v>0.11162716820296267</v>
+            <v>0.10781537563658326</v>
           </cell>
           <cell r="AE51">
-            <v>-5.5039498463703984E-2</v>
+            <v>-5.8851291030083394E-2</v>
           </cell>
         </row>
         <row r="52">
@@ -1599,13 +1602,13 @@
             <v>44.261036618834787</v>
           </cell>
           <cell r="AC52">
-            <v>24.866367337038557</v>
+            <v>24.866826486112295</v>
           </cell>
           <cell r="AD52">
-            <v>8.7930378192167327E-2</v>
+            <v>8.7932001796900305E-2</v>
           </cell>
           <cell r="AE52">
-            <v>-7.873628847449933E-2</v>
+            <v>-7.8734664869766352E-2</v>
           </cell>
         </row>
         <row r="53">
@@ -1619,10 +1622,10 @@
             <v>-1.092247948873082E-2</v>
           </cell>
           <cell r="U53">
-            <v>-8.2059898069129583E-2</v>
+            <v>-0.11568545200085127</v>
           </cell>
           <cell r="V53">
-            <v>-7.1137418580398765E-2</v>
+            <v>-0.10476297251212045</v>
           </cell>
         </row>
       </sheetData>
@@ -1882,7 +1885,7 @@
             <v>NZU Spot</v>
           </cell>
           <cell r="H44">
-            <v>2000</v>
+            <v>6000</v>
           </cell>
           <cell r="I44">
             <v>56.25</v>
@@ -1964,16 +1967,16 @@
             <v>NZU</v>
           </cell>
           <cell r="F52" t="str">
-            <v>NZU 50P Jul24</v>
+            <v>NZU 42P Jul24</v>
           </cell>
           <cell r="H52">
-            <v>-50000</v>
+            <v>-100000</v>
           </cell>
           <cell r="I52">
-            <v>1.3583854136444131</v>
+            <v>0.3183763205249992</v>
           </cell>
           <cell r="J52">
-            <v>2.0283056409806868</v>
+            <v>0.40929782175859142</v>
           </cell>
         </row>
         <row r="53">
@@ -2109,7 +2112,7 @@
             <v>FUM</v>
           </cell>
           <cell r="B90">
-            <v>15787556.753210971</v>
+            <v>15209197.22558536</v>
           </cell>
         </row>
       </sheetData>
@@ -2168,13 +2171,13 @@
             <v>61.51</v>
           </cell>
           <cell r="J3">
-            <v>61.51</v>
+            <v>63.78</v>
           </cell>
           <cell r="Q3" t="str">
             <v>USDAUD</v>
           </cell>
           <cell r="R3">
-            <v>1.534</v>
+            <v>1.5305</v>
           </cell>
         </row>
         <row r="4">
@@ -2194,7 +2197,7 @@
             <v>EURAUD</v>
           </cell>
           <cell r="R4">
-            <v>1.65808</v>
+            <v>1.6564000000000001</v>
           </cell>
         </row>
         <row r="5">
@@ -2234,7 +2237,7 @@
             <v>NZDUSD</v>
           </cell>
           <cell r="R6">
-            <v>0.59940000000000004</v>
+            <v>0.60070000000000001</v>
           </cell>
         </row>
         <row r="7">
@@ -2254,13 +2257,13 @@
             <v>3.4</v>
           </cell>
           <cell r="J7">
-            <v>3.309766440289216</v>
+            <v>4.3378534572272542</v>
           </cell>
           <cell r="Q7" t="str">
             <v>GBPAUD</v>
           </cell>
           <cell r="R7">
-            <v>1.9329000000000001</v>
+            <v>1.9334</v>
           </cell>
         </row>
         <row r="8">
@@ -2280,13 +2283,13 @@
             <v>1.1000000000000001</v>
           </cell>
           <cell r="J8">
-            <v>1.0389255049248207</v>
+            <v>1.485894533031654</v>
           </cell>
           <cell r="Q8" t="str">
             <v>GBPEUR</v>
           </cell>
           <cell r="R8">
-            <v>1.1657999999999999</v>
+            <v>1.1672</v>
           </cell>
         </row>
         <row r="9">
@@ -2306,7 +2309,7 @@
             <v>5.77</v>
           </cell>
           <cell r="J9">
-            <v>5.7102842758622945</v>
+            <v>6.83536223987086</v>
           </cell>
           <cell r="R9">
             <v>1</v>
@@ -2329,7 +2332,7 @@
             <v>3.9750000000000001</v>
           </cell>
           <cell r="J10">
-            <v>3.9945169262568903</v>
+            <v>3.5003539490361688</v>
           </cell>
         </row>
         <row r="11">
@@ -2349,7 +2352,7 @@
             <v>7.1950000000000003</v>
           </cell>
           <cell r="J11">
-            <v>7.217257719835585</v>
+            <v>8.3830291513315345</v>
           </cell>
         </row>
         <row r="12">
@@ -2369,10 +2372,10 @@
             <v>4.1150000000000002</v>
           </cell>
           <cell r="J12">
-            <v>4.1361523831962614</v>
+            <v>4.9438459421679815</v>
           </cell>
           <cell r="R12">
-            <v>-446.25</v>
+            <v>-318.75</v>
           </cell>
         </row>
         <row r="13">
@@ -2392,10 +2395,10 @@
             <v>1.77</v>
           </cell>
           <cell r="J13">
-            <v>1.7860679233041625</v>
+            <v>2.2139520441214717</v>
           </cell>
           <cell r="R13">
-            <v>39298.061059570842</v>
+            <v>44571.334625410374</v>
           </cell>
         </row>
         <row r="14">
@@ -2412,7 +2415,7 @@
             <v/>
           </cell>
           <cell r="R14">
-            <v>44388.352739916169</v>
+            <v>30246.765926665332</v>
           </cell>
         </row>
         <row r="15">
@@ -2460,7 +2463,7 @@
             <v>37.53</v>
           </cell>
           <cell r="J17">
-            <v>37.53</v>
+            <v>38.5</v>
           </cell>
           <cell r="R17" t="str">
             <v>Last Price</v>
@@ -2483,13 +2486,13 @@
             <v>4.29</v>
           </cell>
           <cell r="J18">
-            <v>4.3652013413264097</v>
+            <v>4.7853874614831735</v>
           </cell>
           <cell r="Q18" t="str">
             <v>ACCU Spot</v>
           </cell>
           <cell r="R18">
-            <v>34.5</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="19">
@@ -2509,13 +2512,13 @@
             <v>2.61</v>
           </cell>
           <cell r="J19">
-            <v>2.6651353873348693</v>
+            <v>2.9489515685571224</v>
           </cell>
           <cell r="Q19" t="str">
             <v>ACCU HIR</v>
           </cell>
           <cell r="R19">
-            <v>36.25</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="20">
@@ -2535,13 +2538,13 @@
             <v>36.25</v>
           </cell>
           <cell r="J20">
-            <v>34.5</v>
+            <v>35</v>
           </cell>
           <cell r="Q20" t="str">
             <v>ACCU Aug23 HIR</v>
           </cell>
           <cell r="R20">
-            <v>36.25</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="21">
@@ -2567,7 +2570,7 @@
             <v>ACCU Dec24 HIR</v>
           </cell>
           <cell r="R21">
-            <v>37.945875324329108</v>
+            <v>37.684179632437178</v>
           </cell>
         </row>
         <row r="22">
@@ -2587,13 +2590,13 @@
             <v>36.25</v>
           </cell>
           <cell r="J22">
-            <v>34.6</v>
+            <v>35.1</v>
           </cell>
           <cell r="Q22" t="str">
             <v>ACCU Aug23 Generic</v>
           </cell>
           <cell r="R22">
-            <v>34.5</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="23">
@@ -2613,13 +2616,13 @@
             <v>36.25</v>
           </cell>
           <cell r="J23">
-            <v>34.6</v>
+            <v>35.1</v>
           </cell>
           <cell r="Q23" t="str">
             <v>ACCU Jul23 A/C</v>
           </cell>
           <cell r="R23">
-            <v>34.5</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="24">
@@ -2639,13 +2642,13 @@
             <v>38</v>
           </cell>
           <cell r="J24">
-            <v>36.25</v>
+            <v>36</v>
           </cell>
           <cell r="Q24" t="str">
             <v>ACCU Jan24 noAD</v>
           </cell>
           <cell r="R24">
-            <v>34.5</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="25">
@@ -2665,13 +2668,13 @@
             <v>36.25</v>
           </cell>
           <cell r="J25">
-            <v>34.6</v>
+            <v>35.1</v>
           </cell>
           <cell r="Q25" t="str">
             <v>ACCU Feb24 noAD</v>
           </cell>
           <cell r="R25">
-            <v>34.268635189946075</v>
+            <v>34.765282076756883</v>
           </cell>
         </row>
         <row r="26">
@@ -2691,13 +2694,13 @@
             <v>36.25</v>
           </cell>
           <cell r="J26">
-            <v>34.6</v>
+            <v>35.1</v>
           </cell>
           <cell r="Q26" t="str">
             <v>Dec23 fwd</v>
           </cell>
           <cell r="R26">
-            <v>34.5</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="27">
@@ -2717,13 +2720,13 @@
             <v>37.08705630266909</v>
           </cell>
           <cell r="J27">
-            <v>35.294050219824356</v>
+            <v>35.802852561409289</v>
           </cell>
           <cell r="Q27" t="str">
             <v>Jul23 fwd</v>
           </cell>
           <cell r="R27">
-            <v>34.5</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="28">
@@ -2743,7 +2746,7 @@
             <v>38.877465917280702</v>
           </cell>
           <cell r="J28">
-            <v>37.084328129525595</v>
+            <v>36.82579120602098</v>
           </cell>
           <cell r="Q28" t="str">
             <v>Method Premium</v>
@@ -2769,7 +2772,7 @@
             <v>39.784608761061669</v>
           </cell>
           <cell r="J29">
-            <v>37.819705708083127</v>
+            <v>37.556042029791151</v>
           </cell>
           <cell r="Q29" t="str">
             <v>Wastewater Premium</v>
@@ -2837,7 +2840,7 @@
             <v>HIR Premium</v>
           </cell>
           <cell r="R33">
-            <v>1.75</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="35">
@@ -2857,7 +2860,7 @@
             <v>1.9816287455972308</v>
           </cell>
           <cell r="J35">
-            <v>2.5734734487961131</v>
+            <v>2.3849189579527685</v>
           </cell>
         </row>
         <row r="36">
@@ -3013,7 +3016,7 @@
             <v>54.85</v>
           </cell>
           <cell r="J44">
-            <v>54.75</v>
+            <v>55.4</v>
           </cell>
         </row>
         <row r="45">
@@ -3050,7 +3053,7 @@
             <v>12.91377321165487</v>
           </cell>
           <cell r="J46">
-            <v>13.027014280534516</v>
+            <v>12.385004307303923</v>
           </cell>
         </row>
         <row r="47">
@@ -3070,7 +3073,7 @@
             <v>7.0948114963139659</v>
           </cell>
           <cell r="J47">
-            <v>7.178422888633591</v>
+            <v>6.5781754541167174</v>
           </cell>
         </row>
         <row r="48">
@@ -3107,7 +3110,7 @@
             <v>8.0670755107048798E-10</v>
           </cell>
           <cell r="J49">
-            <v>1.2421963955061168E-15</v>
+            <v>2.3020851850742125E-16</v>
           </cell>
         </row>
         <row r="50">
@@ -3127,7 +3130,7 @@
             <v>0.13788469269928361</v>
           </cell>
           <cell r="J50">
-            <v>0.12880324763328832</v>
+            <v>0.15042929915707881</v>
           </cell>
         </row>
         <row r="51">
@@ -3161,10 +3164,10 @@
             <v>-100000</v>
           </cell>
           <cell r="I52">
-            <v>0.40424284730593119</v>
+            <v>0.40929782175859142</v>
           </cell>
           <cell r="J52">
-            <v>0.41151942378830597</v>
+            <v>0.36346185234097073</v>
           </cell>
         </row>
         <row r="53">
@@ -3184,7 +3187,7 @@
             <v>0.66164730016472806</v>
           </cell>
           <cell r="J53">
-            <v>0.63936936855043491</v>
+            <v>0.72479816046712742</v>
           </cell>
         </row>
         <row r="54">
@@ -3204,7 +3207,7 @@
             <v>5.9309649714588852E-2</v>
           </cell>
           <cell r="J54">
-            <v>5.6048641354290107E-2</v>
+            <v>6.6305208699954044E-2</v>
           </cell>
         </row>
         <row r="55">
@@ -3224,7 +3227,7 @@
             <v>1.2967127372065441</v>
           </cell>
           <cell r="J55">
-            <v>1.2945771695779094</v>
+            <v>1.1438938736625737</v>
           </cell>
         </row>
         <row r="56">
@@ -3244,7 +3247,7 @@
             <v>6.2498716377213626</v>
           </cell>
           <cell r="J56">
-            <v>6.2921781079689225</v>
+            <v>5.8666296641350968</v>
           </cell>
         </row>
         <row r="57">
@@ -3264,7 +3267,7 @@
             <v>7.0673773897115275E-6</v>
           </cell>
           <cell r="J57">
-            <v>1.6664720322551147E-6</v>
+            <v>2.6305047545644193E-6</v>
           </cell>
         </row>
         <row r="58">
@@ -3284,7 +3287,7 @@
             <v>7.5558833255404513E-11</v>
           </cell>
           <cell r="J58">
-            <v>4.5687725349950931E-12</v>
+            <v>7.3013347615912624E-12</v>
           </cell>
         </row>
         <row r="59">
@@ -3620,12 +3623,12 @@
         </row>
         <row r="80">
           <cell r="J80">
-            <v>295745.26</v>
+            <v>289245.26</v>
           </cell>
         </row>
         <row r="81">
           <cell r="J81">
-            <v>-401320.08</v>
+            <v>-404155.08</v>
           </cell>
         </row>
         <row r="82">
@@ -3640,7 +3643,7 @@
       <sheetData sheetId="7">
         <row r="1">
           <cell r="B1">
-            <v>59.876132202575334</v>
+            <v>62.088781405120962</v>
           </cell>
           <cell r="C1" t="str">
             <v>EUA Dec24</v>
@@ -4107,28 +4110,28 @@
             <v>MTM PRICE</v>
           </cell>
           <cell r="C11">
-            <v>61.51</v>
+            <v>63.78</v>
           </cell>
           <cell r="D11">
-            <v>3.309766440289216</v>
+            <v>4.3378534572272542</v>
           </cell>
           <cell r="E11">
-            <v>1.0389255049248207</v>
+            <v>1.485894533031654</v>
           </cell>
           <cell r="F11">
-            <v>5.7102842758622945</v>
+            <v>6.83536223987086</v>
           </cell>
           <cell r="G11">
-            <v>3.9945169262568903</v>
+            <v>3.5003539490361688</v>
           </cell>
           <cell r="H11">
-            <v>7.217257719835585</v>
+            <v>8.3830291513315345</v>
           </cell>
           <cell r="I11">
-            <v>4.1361523831962614</v>
+            <v>4.9438459421679815</v>
           </cell>
           <cell r="J11">
-            <v>1.7860679233041625</v>
+            <v>2.2139520441214717</v>
           </cell>
           <cell r="N11" t="e">
             <v>#VALUE!</v>
@@ -4137,19 +4140,19 @@
             <v>#VALUE!</v>
           </cell>
           <cell r="Q11">
-            <v>1.7183323967450908</v>
+            <v>1.48290562501707</v>
           </cell>
           <cell r="R11">
-            <v>3.9945169262568903</v>
+            <v>3.5003539490361688</v>
           </cell>
           <cell r="T11">
-            <v>5.5387317289633522</v>
+            <v>6.6584973477409477</v>
           </cell>
           <cell r="U11">
-            <v>3.309766440289216</v>
+            <v>4.3378534572272542</v>
           </cell>
           <cell r="V11">
-            <v>7.217257719835585</v>
+            <v>8.3830291513315345</v>
           </cell>
         </row>
         <row r="12">
@@ -4183,71 +4186,71 @@
         </row>
         <row r="13">
           <cell r="D13">
-            <v>0.42194651969524166</v>
+            <v>0.49519933411443834</v>
           </cell>
           <cell r="E13">
-            <v>0.17580256280368858</v>
+            <v>0.22728904028837527</v>
           </cell>
           <cell r="F13">
-            <v>0.47554006552345757</v>
+            <v>0.52339990246660695</v>
           </cell>
           <cell r="G13">
-            <v>-0.22854848954237275</v>
+            <v>-0.20187067228011085</v>
           </cell>
           <cell r="H13">
-            <v>0.49728414950679906</v>
+            <v>0.53609375653452296</v>
           </cell>
           <cell r="I13">
-            <v>0.34011991283473741</v>
+            <v>0.37767178328622775</v>
           </cell>
           <cell r="J13">
-            <v>0.1771606344811979</v>
+            <v>0.20464004291624058</v>
           </cell>
         </row>
         <row r="14">
           <cell r="D14">
-            <v>31645.988977143126</v>
+            <v>37139.950058582872</v>
           </cell>
           <cell r="E14">
-            <v>-13185.192210276644</v>
+            <v>-17046.678021628144</v>
           </cell>
           <cell r="F14">
-            <v>-35665.50491425932</v>
+            <v>-39254.992684995523</v>
           </cell>
           <cell r="G14">
-            <v>22854.848954237274</v>
+            <v>20187.067228011085</v>
           </cell>
           <cell r="H14">
-            <v>74592.622426019865</v>
+            <v>80414.063480178447</v>
           </cell>
           <cell r="I14">
-            <v>-25508.993462605307</v>
+            <v>-28325.38374646708</v>
           </cell>
           <cell r="J14">
-            <v>9743.8348964658835</v>
+            <v>11255.202360393232</v>
           </cell>
         </row>
         <row r="15">
           <cell r="D15">
-            <v>-6767.5169783087958</v>
+            <v>70339.00929204408</v>
           </cell>
           <cell r="E15">
-            <v>4580.5871306384524</v>
+            <v>-28942.089977374042</v>
           </cell>
           <cell r="F15">
-            <v>4478.6793103278824</v>
+            <v>-79902.167990314527</v>
           </cell>
           <cell r="G15">
-            <v>-1951.6926256890165</v>
+            <v>47464.605096383129</v>
           </cell>
           <cell r="H15">
-            <v>3338.6579753377</v>
+            <v>178204.37269973013</v>
           </cell>
           <cell r="I15">
-            <v>-1586.4287397195919</v>
+            <v>-62163.445662598591</v>
           </cell>
           <cell r="J15">
-            <v>883.73578172893815</v>
+            <v>24417.362426680946</v>
           </cell>
         </row>
         <row r="16">
@@ -4327,7 +4330,7 @@
             <v>GBPAUD</v>
           </cell>
           <cell r="R1">
-            <v>1.9329000000000001</v>
+            <v>1.9334</v>
           </cell>
         </row>
         <row r="2">
@@ -4525,7 +4528,7 @@
         </row>
         <row r="10">
           <cell r="C10">
-            <v>37.53</v>
+            <v>38.5</v>
           </cell>
           <cell r="D10">
             <v>4.29</v>
@@ -4554,31 +4557,31 @@
         </row>
         <row r="11">
           <cell r="C11">
-            <v>37.53</v>
+            <v>38.5</v>
           </cell>
           <cell r="D11">
-            <v>4.3652013413264097</v>
+            <v>4.7853874614831735</v>
           </cell>
           <cell r="E11">
-            <v>2.6651353873348693</v>
+            <v>2.9489515685571224</v>
           </cell>
           <cell r="J11">
-            <v>5.8205176527794293</v>
+            <v>6.3343002108647237</v>
           </cell>
           <cell r="K11">
-            <v>4.3652013413264097</v>
+            <v>4.7853874614831735</v>
           </cell>
           <cell r="L11">
-            <v>3.3534914226565817</v>
+            <v>3.6968181013963228</v>
           </cell>
           <cell r="M11">
-            <v>2.6651353873348693</v>
+            <v>2.9489515685571224</v>
           </cell>
           <cell r="N11">
-            <v>2.1472349521713934</v>
+            <v>2.383437991285196</v>
           </cell>
           <cell r="O11">
-            <v>1.7510673243591439</v>
+            <v>1.9490312457593726</v>
           </cell>
         </row>
         <row r="12">
@@ -4691,8 +4694,8 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="C12">
-            <v>0.40424284730593119</v>
+          <cell r="C12" t="e">
+            <v>#N/A</v>
           </cell>
           <cell r="D12">
             <v>0.66164730016472806</v>
@@ -4730,40 +4733,40 @@
         </row>
         <row r="13">
           <cell r="C13">
-            <v>0.41151942378830597</v>
+            <v>0.36346185234097073</v>
           </cell>
           <cell r="D13">
-            <v>0.63936936855043491</v>
+            <v>0.72479816046712742</v>
           </cell>
           <cell r="E13">
-            <v>5.6048641354290107E-2</v>
+            <v>6.6305208699954044E-2</v>
           </cell>
           <cell r="F13">
-            <v>6.2921781079689225</v>
+            <v>5.8666296641350968</v>
           </cell>
           <cell r="G13">
-            <v>1.2945771695779094</v>
+            <v>1.1438938736625737</v>
           </cell>
           <cell r="H13">
-            <v>1.2421963955061168E-15</v>
+            <v>2.3020851850742125E-16</v>
           </cell>
           <cell r="I13">
-            <v>13.027014280534516</v>
+            <v>12.385004307303923</v>
           </cell>
           <cell r="J13">
-            <v>7.178422888633591</v>
+            <v>6.5781754541167174</v>
           </cell>
           <cell r="K13">
-            <v>1.6664720322551147E-6</v>
+            <v>2.6305047545644193E-6</v>
           </cell>
           <cell r="L13">
-            <v>4.5687725349950931E-12</v>
+            <v>7.3013347615912624E-12</v>
           </cell>
           <cell r="M13">
-            <v>0.12880324763328832</v>
+            <v>0.15042929915707881</v>
           </cell>
           <cell r="N13">
-            <v>54.75</v>
+            <v>55.4</v>
           </cell>
         </row>
         <row r="14">
@@ -4806,37 +4809,37 @@
         </row>
         <row r="15">
           <cell r="C15">
-            <v>-9.7220322451733593E-2</v>
+            <v>-8.7606255869858207E-2</v>
           </cell>
           <cell r="D15">
-            <v>9.5920713193643745E-2</v>
+            <v>0.10641826859568702</v>
           </cell>
           <cell r="E15">
-            <v>9.8612632218070088E-3</v>
+            <v>1.1474863058759768E-2</v>
           </cell>
           <cell r="F15">
-            <v>-0.71326375585001967</v>
+            <v>-0.68916276210076632</v>
           </cell>
           <cell r="G15">
-            <v>-0.28880753915009011</v>
+            <v>-0.26394357037269828</v>
           </cell>
           <cell r="H15">
-            <v>9.5291798111695849E-17</v>
+            <v>1.2929743399873381E-17</v>
           </cell>
           <cell r="I15">
-            <v>-0.99442849872838002</v>
+            <v>-0.9935795925560218</v>
           </cell>
           <cell r="J15">
-            <v>-0.95235003523954609</v>
+            <v>-0.93918752920093995</v>
           </cell>
           <cell r="K15">
-            <v>5.7970789553828063E-7</v>
+            <v>9.1044172542276235E-7</v>
           </cell>
           <cell r="L15">
-            <v>1.3455985322038814E-12</v>
+            <v>2.1363167180196733E-12</v>
           </cell>
           <cell r="M15">
-            <v>2.1832091917014393E-2</v>
+            <v>2.5045454024486151E-2</v>
           </cell>
           <cell r="N15">
             <v>1</v>
@@ -4844,83 +4847,83 @@
         </row>
         <row r="16">
           <cell r="C16">
-            <v>9722.0322451733591</v>
+            <v>8760.6255869858214</v>
           </cell>
           <cell r="D16">
-            <v>4796.0356596821875</v>
+            <v>5320.9134297843511</v>
           </cell>
           <cell r="E16">
-            <v>-493.06316109035043</v>
+            <v>-573.74315293798838</v>
           </cell>
           <cell r="F16">
-            <v>35663.187792500983</v>
+            <v>34458.138105038313</v>
           </cell>
           <cell r="G16">
-            <v>-14440.376957504506</v>
+            <v>-13197.178518634913</v>
           </cell>
           <cell r="H16">
-            <v>4.7645899055847922E-12</v>
+            <v>6.4648716999366907E-13</v>
           </cell>
           <cell r="I16">
-            <v>-49721.424936419004</v>
+            <v>-49678.979627801091</v>
           </cell>
           <cell r="J16">
-            <v>47617.501761977306</v>
+            <v>46959.376460046995</v>
           </cell>
           <cell r="K16">
-            <v>2.8985394776914031E-2</v>
+            <v>4.5522086271138115E-2</v>
           </cell>
           <cell r="L16">
-            <v>-6.7279926610194065E-8</v>
+            <v>-1.0681583590098367E-7</v>
           </cell>
           <cell r="M16">
-            <v>-1091.6045958507195</v>
+            <v>-1252.2727012243076</v>
           </cell>
           <cell r="N16">
             <v>6000</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="C17">
-            <v>-727.65764823747861</v>
+          <cell r="C17" t="e">
+            <v>#N/A</v>
           </cell>
           <cell r="D17">
-            <v>-1113.8965807146571</v>
+            <v>3157.543015119968</v>
           </cell>
           <cell r="E17">
-            <v>163.05041801493724</v>
+            <v>-349.77794926825953</v>
           </cell>
           <cell r="F17">
-            <v>-2115.3235123779978</v>
+            <v>19162.098679313287</v>
           </cell>
           <cell r="G17">
-            <v>-106.77838143173801</v>
+            <v>-7640.9431771985228</v>
           </cell>
           <cell r="H17">
-            <v>-4.0335315443704624E-5</v>
+            <v>-4.0335366043098473E-5</v>
           </cell>
           <cell r="I17">
-            <v>5662.0534439822732</v>
+            <v>-26438.445217547367</v>
           </cell>
           <cell r="J17">
-            <v>-4180.569615981256</v>
+            <v>25831.802109862423</v>
           </cell>
           <cell r="K17">
-            <v>-0.27004526787282063</v>
+            <v>-0.22184363175735541</v>
           </cell>
           <cell r="L17">
-            <v>3.5495030360204712E-6</v>
+            <v>3.4128749246906627E-6</v>
           </cell>
           <cell r="M17">
-            <v>454.07225329976433</v>
+            <v>-627.23032288976026</v>
           </cell>
           <cell r="N17">
-            <v>-600.00000000000853</v>
+            <v>3299.9999999999827</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="C18">
-            <v>56575.715269406879</v>
+          <cell r="C18" t="e">
+            <v>#N/A</v>
           </cell>
           <cell r="D18">
             <v>-329417.63499176363</v>
@@ -4990,7 +4993,7 @@
         </row>
         <row r="33">
           <cell r="B33">
-            <v>54.75</v>
+            <v>55.4</v>
           </cell>
         </row>
       </sheetData>
@@ -5199,31 +5202,31 @@
         </row>
         <row r="13">
           <cell r="D13">
-            <v>2.5734734487961131</v>
+            <v>2.3849189579527685</v>
           </cell>
           <cell r="E13" t="str">
             <v/>
           </cell>
           <cell r="F13">
-            <v>35.294050219824356</v>
+            <v>35.802852561409289</v>
           </cell>
           <cell r="G13">
-            <v>37.084328129525595</v>
+            <v>36.82579120602098</v>
           </cell>
           <cell r="H13">
-            <v>37.819705708083127</v>
+            <v>37.556042029791151</v>
           </cell>
           <cell r="I13">
-            <v>34.5</v>
+            <v>35</v>
           </cell>
           <cell r="J13">
-            <v>34.6</v>
+            <v>35.1</v>
           </cell>
           <cell r="K13">
-            <v>34.6</v>
+            <v>35.1</v>
           </cell>
           <cell r="L13">
-            <v>34.6</v>
+            <v>35.1</v>
           </cell>
           <cell r="M13">
             <v>54.5</v>
@@ -5260,7 +5263,7 @@
         </row>
         <row r="15">
           <cell r="D15">
-            <v>-0.37259564256689032</v>
+            <v>-0.3508310442612203</v>
           </cell>
           <cell r="E15" t="str">
             <v/>
@@ -5292,7 +5295,7 @@
         </row>
         <row r="16">
           <cell r="D16">
-            <v>-27944.673192516773</v>
+            <v>-26312.328319591521</v>
           </cell>
           <cell r="E16" t="str">
             <v/>
@@ -5327,19 +5330,19 @@
         </row>
         <row r="17">
           <cell r="D17">
-            <v>44388.352739916169</v>
+            <v>30246.765926665332</v>
           </cell>
           <cell r="E17" t="str">
             <v/>
           </cell>
           <cell r="F17">
-            <v>-89650.304142236695</v>
+            <v>-64210.187062990088</v>
           </cell>
           <cell r="G17">
-            <v>89656.889387755349</v>
+            <v>102583.73556298608</v>
           </cell>
           <cell r="H17">
-            <v>39298.061059570842</v>
+            <v>44571.334625410374</v>
           </cell>
           <cell r="I17">
             <v>255</v>
@@ -5417,10 +5420,10 @@
             <v>39.92</v>
           </cell>
           <cell r="D10">
-            <v>1.635400459854301</v>
+            <v>1.6327089963596197</v>
           </cell>
           <cell r="E10">
-            <v>0.24536232791002055</v>
+            <v>0.24436060275056937</v>
           </cell>
         </row>
         <row r="11">
@@ -5428,10 +5431,10 @@
             <v>39.92</v>
           </cell>
           <cell r="D11">
-            <v>1.635400459854301</v>
+            <v>1.6327089963596197</v>
           </cell>
           <cell r="E11">
-            <v>0.24536232791002055</v>
+            <v>0.24436060275056937</v>
           </cell>
         </row>
         <row r="12">
@@ -36811,7 +36814,7 @@
       </c>
       <c r="H2" s="8">
         <f>[1]Daily_MTM_live!$R$18</f>
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <f>[1]ACCU_Options!$B$1</f>
@@ -36843,7 +36846,7 @@
       </c>
       <c r="H3" s="8">
         <f ca="1">HLOOKUP($A3,[1]ACCU_Options!$D$10:$K$13,4,FALSE)</f>
-        <v>35.294050219824356</v>
+        <v>35.802852561409289</v>
       </c>
       <c r="I3">
         <f>[1]ACCU_Options!$B$1</f>
@@ -36875,7 +36878,7 @@
       </c>
       <c r="H4" s="8">
         <f ca="1">VLOOKUP(A4,[1]Daily_MTM_live!F$1:J$84,5,FALSE)</f>
-        <v>37.084328129525595</v>
+        <v>36.82579120602098</v>
       </c>
       <c r="I4">
         <f>[1]ACCU_Options!$B$1</f>
@@ -36907,7 +36910,7 @@
       </c>
       <c r="H5" s="8">
         <f ca="1">VLOOKUP(A5,[1]Daily_MTM_live!F$1:J$84,5,FALSE)</f>
-        <v>37.819705708083127</v>
+        <v>37.556042029791151</v>
       </c>
       <c r="I5">
         <f>[1]ACCU_Options!$B$1</f>
@@ -36944,7 +36947,7 @@
       </c>
       <c r="H6" s="8">
         <f ca="1">HLOOKUP($A6,[1]ACCU_Options!$D$10:$M$19,4,FALSE)</f>
-        <v>2.5734734487961131</v>
+        <v>2.3849189579527685</v>
       </c>
       <c r="I6">
         <f>[1]ACCU_Options!$B$1</f>
@@ -37037,15 +37040,15 @@
       </c>
       <c r="E2" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.XLOOKUP($A2,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(E$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>14.47760466672487</v>
+        <v>14.369228674074897</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">_xlfn.XLOOKUP($A2,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(F$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>8.5906558923900075E-2</v>
+        <v>8.5263482336795898E-2</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">_xlfn.XLOOKUP($A2,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(G$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>-8.0760107742766582E-2</v>
+        <v>-8.1403184329870759E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -37058,23 +37061,23 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xlfn.XLOOKUP($A3,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(C$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>14820.176118837133</v>
+        <v>14860.124755931089</v>
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">_xlfn.XLOOKUP($A3,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(D$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>41.853081566506262</v>
+        <v>41.965898955001322</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.XLOOKUP($A3,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(E$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>26.915682485425755</v>
+        <v>27.246932069218534</v>
       </c>
       <c r="F3" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">_xlfn.XLOOKUP($A3,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(F$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>1.298548196915048E-2</v>
+        <v>1.3109954828417992E-2</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_xlfn.XLOOKUP($A3,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(G$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>-0.15368118469751618</v>
+        <v>-0.15355671183824868</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -37095,15 +37098,15 @@
       </c>
       <c r="E4" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.XLOOKUP($A4,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(E$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>-45.914673192516773</v>
+        <v>-44.282328319591521</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">_xlfn.XLOOKUP($A4,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(F$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>-9.6767843210972843E-2</v>
+        <v>-9.3327581487511205E-2</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">_xlfn.XLOOKUP($A4,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(G$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>-0.2634345098776395</v>
+        <v>-0.25999424815417788</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -37145,23 +37148,23 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xlfn.XLOOKUP($A6,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(C$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>31162.807551545455</v>
+        <v>31200.116093455232</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">_xlfn.XLOOKUP($A6,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(D$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>46.685854009805922</v>
+        <v>46.741746956487241</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.XLOOKUP($A6,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(E$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>38.052316793796749</v>
+        <v>36.796925103236639</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">_xlfn.XLOOKUP($A6,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(F$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>0.11162716820296267</v>
+        <v>0.10781537563658326</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">_xlfn.XLOOKUP($A6,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(G$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>-5.5039498463703984E-2</v>
+        <v>-5.8851291030083394E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -37182,15 +37185,15 @@
       </c>
       <c r="E7" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">_xlfn.XLOOKUP($A7,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(E$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>24.866367337038557</v>
+        <v>24.866826486112295</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">_xlfn.XLOOKUP($A7,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(F$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>8.7930378192167327E-2</v>
+        <v>8.7932001796900305E-2</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">_xlfn.XLOOKUP($A7,[1]Monthly_MTM!$X$47:$X$52,_xlfn.XLOOKUP(G$1,[1]Monthly_MTM!$Y$46:$AE$46,[1]Monthly_MTM!$Y$47:$AE$52))</f>
-        <v>-7.873628847449933E-2</v>
+        <v>-7.8734664869766352E-2</v>
       </c>
     </row>
   </sheetData>
@@ -37227,7 +37230,7 @@
       </c>
       <c r="B2">
         <f>[1]Daily_MTM_live!$R$33</f>
-        <v>1.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -37262,7 +37265,7 @@
       </c>
       <c r="B6" s="9">
         <f ca="1">VLOOKUP(A6,[1]Daily_MTM!$A$87:$B$92,2,FALSE)</f>
-        <v>15787556.753210971</v>
+        <v>15209197.22558536</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -37271,7 +37274,7 @@
       </c>
       <c r="B7">
         <f>VLOOKUP("ACCU Spot",[1]Daily_MTM_live!$Q$12:$R$33,2,FALSE)</f>
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -37290,7 +37293,7 @@
       </c>
       <c r="B9">
         <f>VLOOKUP("NZU Spot",[1]Daily_MTM_live!$F$2:$J$69,5,FALSE)</f>
-        <v>54.75</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -37299,7 +37302,7 @@
       </c>
       <c r="B10" cm="1">
         <f t="array" ref="B10">_xll.BDP("MZBZ4 Comdty","LAST_PRICE")</f>
-        <v>61.51</v>
+        <v>63.78</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -37308,7 +37311,7 @@
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11">_xll.BDP("UKEZ4 Comdty","LAST_PRICE")</f>
-        <v>37.53</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -37326,7 +37329,7 @@
       </c>
       <c r="B13">
         <f>VLOOKUP(A13,[1]Daily_MTM_live!$Q$1:$R$9,2,FALSE)</f>
-        <v>1.534</v>
+        <v>1.5305</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -37335,7 +37338,7 @@
       </c>
       <c r="B14">
         <f>VLOOKUP(A14,[1]Daily_MTM_live!$Q$1:$R$9,2,FALSE)</f>
-        <v>1.9329000000000001</v>
+        <v>1.9334</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -37344,7 +37347,7 @@
       </c>
       <c r="B15">
         <f>VLOOKUP(A15,[1]Daily_MTM_live!$Q$1:$R$9,2,FALSE)</f>
-        <v>1.65808</v>
+        <v>1.6564000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -63522,7 +63525,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63567,25 +63570,29 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="34">
-        <f>SUM([1]NZ_Options!$N$16:$N$16)+28000</f>
-        <v>34000</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="33">
+        <f>SUM([1]NZ_Options!$N$16:$N$16)+31000</f>
+        <v>37000</v>
+      </c>
+      <c r="H2" s="39">
         <f>[1]NZ_Options!$B$33</f>
-        <v>54.75</v>
-      </c>
-      <c r="I2" s="14">
+        <v>55.4</v>
+      </c>
+      <c r="I2" s="40">
         <f>[1]NZ_Options!$C$5</f>
         <v>0.06</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="38">
         <f>VLOOKUP("NZDAUD",Index!$A$5:$B$17,2,FALSE)</f>
         <v>0.91949999999999998</v>
       </c>
@@ -63603,7 +63610,7 @@
       <c r="D3">
         <v>71</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="34">
         <v>0.34</v>
       </c>
       <c r="F3" s="2">
@@ -63613,9 +63620,9 @@
         <f>HLOOKUP($A3,[1]NZ_Options!$C$10:$N$19,5,FALSE)</f>
         <v>50000</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="35">
         <f ca="1">HLOOKUP($A3,[1]NZ_Options!$C$10:$N$19,4,FALSE)</f>
-        <v>1.2421963955061168E-15</v>
+        <v>2.3020851850742125E-16</v>
       </c>
       <c r="I3" s="14">
         <f>[1]NZ_Options!$C$5</f>
@@ -63639,7 +63646,7 @@
       <c r="D4">
         <v>80</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="34">
         <v>0.34</v>
       </c>
       <c r="F4" s="2">
@@ -63650,9 +63657,9 @@
         <f>HLOOKUP($A4,[1]NZ_Options!$C$10:$N$19,5,FALSE)</f>
         <v>50000</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="35">
         <f ca="1">HLOOKUP($A4,[1]NZ_Options!$C$10:$N$19,4,FALSE)</f>
-        <v>1.6664720322551147E-6</v>
+        <v>2.6305047545644193E-6</v>
       </c>
       <c r="I4" s="14">
         <f>[1]NZ_Options!$C$5</f>
@@ -63676,7 +63683,7 @@
       <c r="D5">
         <v>95</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="34">
         <v>0.34</v>
       </c>
       <c r="F5" s="2">
@@ -63687,9 +63694,9 @@
         <f>HLOOKUP($A5,[1]NZ_Options!$C$10:$N$19,5,FALSE)</f>
         <v>-50000</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <f ca="1">HLOOKUP($A5,[1]NZ_Options!$C$10:$N$19,4,FALSE)</f>
-        <v>4.5687725349950931E-12</v>
+        <v>7.3013347615912624E-12</v>
       </c>
       <c r="I5" s="14">
         <f>[1]NZ_Options!$C$5</f>
@@ -63713,7 +63720,7 @@
       <c r="D6">
         <v>68</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="34">
         <v>0.34</v>
       </c>
       <c r="F6" s="2">
@@ -63724,9 +63731,9 @@
         <f>HLOOKUP($A6,[1]NZ_Options!$C$10:$N$19,5,FALSE)</f>
         <v>50000</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <f ca="1">HLOOKUP($A6,[1]NZ_Options!$C$10:$N$19,4,FALSE)</f>
-        <v>13.027014280534516</v>
+        <v>12.385004307303923</v>
       </c>
       <c r="I6" s="14">
         <f>[1]NZ_Options!$C$5</f>
@@ -63750,7 +63757,7 @@
       <c r="D7">
         <v>62</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="34">
         <v>0.34</v>
       </c>
       <c r="F7" s="2">
@@ -63761,9 +63768,9 @@
         <f>HLOOKUP($A7,[1]NZ_Options!$C$10:$N$19,5,FALSE)</f>
         <v>-50000</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <f ca="1">HLOOKUP($A7,[1]NZ_Options!$C$10:$N$19,4,FALSE)</f>
-        <v>7.178422888633591</v>
+        <v>6.5781754541167174</v>
       </c>
       <c r="I7" s="14">
         <f>[1]NZ_Options!$C$5</f>
@@ -63788,19 +63795,19 @@
       <c r="D8">
         <v>50</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="34">
         <v>0.34</v>
       </c>
       <c r="F8" s="2">
         <f>HLOOKUP(A8,[1]NZ_Options!$C$10:$N$19,10,FALSE)</f>
         <v>45457.666666666664</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="41">
         <v>0</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <f ca="1">HLOOKUP($A8,[1]NZ_Options!$C$10:$N$19,4,FALSE)</f>
-        <v>1.2945771695779094</v>
+        <v>1.1438938736625737</v>
       </c>
       <c r="I8" s="14">
         <f>[1]NZ_Options!$C$5</f>
@@ -63824,19 +63831,19 @@
       <c r="D9">
         <v>60</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="34">
         <v>0.34</v>
       </c>
       <c r="F9" s="2">
         <f>HLOOKUP(A9,[1]NZ_Options!$C$10:$N$19,10,FALSE)</f>
         <v>45457.666666666664</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="41">
         <v>0</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <f ca="1">HLOOKUP($A9,[1]NZ_Options!$C$10:$N$19,4,FALSE)</f>
-        <v>6.2921781079689225</v>
+        <v>5.8666296641350968</v>
       </c>
       <c r="I9" s="14">
         <f>[1]NZ_Options!$C$5</f>
@@ -63860,20 +63867,20 @@
       <c r="D10">
         <v>42</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="34">
         <v>0.38</v>
       </c>
       <c r="F10" s="2">
         <f>HLOOKUP(A10,[1]NZ_Options!$C$10:$N$19,10,FALSE)</f>
         <v>45488.666666666664</v>
       </c>
-      <c r="G10" s="12">
-        <f>HLOOKUP($A10,[1]NZ_Options!$C$10:$N$19,5,FALSE)</f>
-        <v>-100000</v>
-      </c>
-      <c r="H10" s="36">
+      <c r="G10" s="33">
+        <f>HLOOKUP($A10,[1]NZ_Options!$C$10:$N$19,5,FALSE)+50000</f>
+        <v>-50000</v>
+      </c>
+      <c r="H10" s="35">
         <f ca="1">HLOOKUP($A10,[1]NZ_Options!$C$10:$N$19,4,FALSE)</f>
-        <v>0.41151942378830597</v>
+        <v>0.36346185234097073</v>
       </c>
       <c r="I10" s="14">
         <f>[1]NZ_Options!$C$5</f>
@@ -63897,7 +63904,7 @@
       <c r="D11">
         <v>70</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <v>0.34</v>
       </c>
       <c r="F11" s="2">
@@ -63908,9 +63915,9 @@
         <f>HLOOKUP($A11,[1]NZ_Options!$C$10:$N$19,5,FALSE)</f>
         <v>50000</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <f ca="1">HLOOKUP($A11,[1]NZ_Options!$C$10:$N$19,4,FALSE)</f>
-        <v>0.63936936855043491</v>
+        <v>0.72479816046712742</v>
       </c>
       <c r="I11" s="14">
         <f>[1]NZ_Options!$C$5</f>
@@ -63934,7 +63941,7 @@
       <c r="D12">
         <v>85</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>0.34</v>
       </c>
       <c r="F12" s="2">
@@ -63945,9 +63952,9 @@
         <f>HLOOKUP($A12,[1]NZ_Options!$C$10:$N$19,5,FALSE)</f>
         <v>-50000</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="35">
         <f ca="1">HLOOKUP($A12,[1]NZ_Options!$C$10:$N$19,4,FALSE)</f>
-        <v>5.6048641354290107E-2</v>
+        <v>6.6305208699954044E-2</v>
       </c>
       <c r="I12" s="14">
         <f>[1]NZ_Options!$C$5</f>
@@ -63971,7 +63978,7 @@
       <c r="D13">
         <v>80</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>0.34</v>
       </c>
       <c r="F13" s="2">
@@ -63982,9 +63989,9 @@
         <f>HLOOKUP($A13,[1]NZ_Options!$C$10:$N$19,5,FALSE)</f>
         <v>-50000</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="35">
         <f ca="1">HLOOKUP($A13,[1]NZ_Options!$C$10:$N$19,4,FALSE)</f>
-        <v>0.12880324763328832</v>
+        <v>0.15042929915707881</v>
       </c>
       <c r="I13" s="14">
         <f>[1]NZ_Options!$C$5</f>
@@ -64011,16 +64018,16 @@
       <c r="E14" s="20">
         <v>0.375</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <v>45457</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="41">
         <v>-50000</v>
       </c>
       <c r="H14" s="20">
         <v>1.06</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="37">
         <f>[1]NZ_Options!$C$5</f>
         <v>0.06</v>
       </c>
@@ -64035,10 +64042,10 @@
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="37"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="33"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="38"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="20"/>
     </row>
   </sheetData>
@@ -64112,7 +64119,7 @@
       </c>
       <c r="H2" s="3">
         <f>VLOOKUP(A2,[1]Daily_MTM_live!$F$2:$J$40,5,FALSE)</f>
-        <v>61.51</v>
+        <v>63.78</v>
       </c>
       <c r="I2">
         <f>[1]EUA_Options!$C$4</f>
@@ -64120,7 +64127,7 @@
       </c>
       <c r="J2">
         <f>VLOOKUP("EURAUD",Index!$A$5:$B$17,2,FALSE)</f>
-        <v>1.65808</v>
+        <v>1.6564000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -64149,7 +64156,7 @@
       </c>
       <c r="H3">
         <f ca="1">HLOOKUP(A3,[1]EUA_Options!$B$1:$W$11,11,FALSE)</f>
-        <v>3.309766440289216</v>
+        <v>4.3378534572272542</v>
       </c>
       <c r="I3">
         <f>[1]EUA_Options!$C$4</f>
@@ -64157,7 +64164,7 @@
       </c>
       <c r="J3">
         <f>VLOOKUP("EURAUD",Index!$A$5:$B$17,2,FALSE)</f>
-        <v>1.65808</v>
+        <v>1.6564000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -64187,7 +64194,7 @@
       </c>
       <c r="H4">
         <f ca="1">HLOOKUP(A4,[1]EUA_Options!$B$1:$W$11,11,FALSE)</f>
-        <v>1.0389255049248207</v>
+        <v>1.485894533031654</v>
       </c>
       <c r="I4">
         <f>[1]EUA_Options!$C$4</f>
@@ -64195,7 +64202,7 @@
       </c>
       <c r="J4">
         <f>VLOOKUP("EURAUD",Index!$A$5:$B$17,2,FALSE)</f>
-        <v>1.65808</v>
+        <v>1.6564000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -64224,7 +64231,7 @@
       </c>
       <c r="H5">
         <f ca="1">HLOOKUP(A5,[1]EUA_Options!$B$1:$W$11,11,FALSE)</f>
-        <v>5.7102842758622945</v>
+        <v>6.83536223987086</v>
       </c>
       <c r="I5">
         <f>[1]EUA_Options!$C$4</f>
@@ -64232,7 +64239,7 @@
       </c>
       <c r="J5">
         <f>VLOOKUP("EURAUD",Index!$A$5:$B$17,2,FALSE)</f>
-        <v>1.65808</v>
+        <v>1.6564000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -64262,7 +64269,7 @@
       </c>
       <c r="H6">
         <f ca="1">HLOOKUP(A6,[1]EUA_Options!$B$1:$W$11,11,FALSE)</f>
-        <v>1.7860679233041625</v>
+        <v>2.2139520441214717</v>
       </c>
       <c r="I6">
         <f>[1]EUA_Options!$C$4</f>
@@ -64270,7 +64277,7 @@
       </c>
       <c r="J6">
         <f>VLOOKUP("EURAUD",Index!$A$5:$B$17,2,FALSE)</f>
-        <v>1.65808</v>
+        <v>1.6564000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -64300,7 +64307,7 @@
       </c>
       <c r="H7">
         <f ca="1">HLOOKUP(A7,[1]EUA_Options!$B$1:$W$11,11,FALSE)</f>
-        <v>7.217257719835585</v>
+        <v>8.3830291513315345</v>
       </c>
       <c r="I7">
         <f>[1]EUA_Options!$C$4</f>
@@ -64308,7 +64315,7 @@
       </c>
       <c r="J7">
         <f>VLOOKUP("EURAUD",Index!$A$5:$B$17,2,FALSE)</f>
-        <v>1.65808</v>
+        <v>1.6564000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -64338,7 +64345,7 @@
       </c>
       <c r="H8">
         <f ca="1">HLOOKUP(A8,[1]EUA_Options!$B$1:$W$11,11,FALSE)</f>
-        <v>4.1361523831962614</v>
+        <v>4.9438459421679815</v>
       </c>
       <c r="I8">
         <f>[1]EUA_Options!$C$4</f>
@@ -64346,7 +64353,7 @@
       </c>
       <c r="J8">
         <f>VLOOKUP("EURAUD",Index!$A$5:$B$17,2,FALSE)</f>
-        <v>1.65808</v>
+        <v>1.6564000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -64376,7 +64383,7 @@
       </c>
       <c r="H9">
         <f ca="1">HLOOKUP(A9,[1]EUA_Options!$B$1:$W$11,11,FALSE)</f>
-        <v>3.9945169262568903</v>
+        <v>3.5003539490361688</v>
       </c>
       <c r="I9">
         <f>[1]EUA_Options!$C$4</f>
@@ -64384,7 +64391,7 @@
       </c>
       <c r="J9">
         <f>VLOOKUP("EURAUD",Index!$A$5:$B$17,2,FALSE)</f>
-        <v>1.65808</v>
+        <v>1.6564000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -64507,7 +64514,7 @@
       </c>
       <c r="H2" s="13">
         <f>HLOOKUP($A2,[1]UKA_Options!$C$8:$G$12,4,FALSE)</f>
-        <v>37.53</v>
+        <v>38.5</v>
       </c>
       <c r="I2">
         <f>[1]EUA_Options!$C$4</f>
@@ -64515,7 +64522,7 @@
       </c>
       <c r="J2">
         <f>Index!$B$14</f>
-        <v>1.9329000000000001</v>
+        <v>1.9334</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -64544,7 +64551,7 @@
       </c>
       <c r="H3" s="8">
         <f ca="1">HLOOKUP($A3,[1]UKA_Options!$D$1:$S$12,11,FALSE)</f>
-        <v>4.3652013413264097</v>
+        <v>4.7853874614831735</v>
       </c>
       <c r="I3">
         <f>[1]EUA_Options!$C$4</f>
@@ -64552,7 +64559,7 @@
       </c>
       <c r="J3">
         <f>Index!$B$14</f>
-        <v>1.9329000000000001</v>
+        <v>1.9334</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -64581,7 +64588,7 @@
       </c>
       <c r="H4" s="8">
         <f ca="1">HLOOKUP($A4,[1]UKA_Options!$D$1:$S$12,11,FALSE)</f>
-        <v>2.6651353873348693</v>
+        <v>2.9489515685571224</v>
       </c>
       <c r="I4">
         <f>[1]EUA_Options!$C$4</f>
@@ -64589,7 +64596,7 @@
       </c>
       <c r="J4">
         <f>Index!$B$14</f>
-        <v>1.9329000000000001</v>
+        <v>1.9334</v>
       </c>
     </row>
   </sheetData>
@@ -64697,7 +64704,7 @@
       </c>
       <c r="H3" s="3">
         <f ca="1">HLOOKUP(A3,[1]CCA_Options!$C$8:$G$11,4,FALSE)</f>
-        <v>1.635400459854301</v>
+        <v>1.6327089963596197</v>
       </c>
       <c r="I3">
         <f>[1]EUA_Options!$C$4</f>
@@ -64733,7 +64740,7 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">HLOOKUP(A4,[1]CCA_Options!$C$8:$G$11,4,FALSE)</f>
-        <v>0.24536232791002055</v>
+        <v>0.24436060275056937</v>
       </c>
       <c r="I4">
         <f>[1]EUA_Options!$C$4</f>
@@ -64809,7 +64816,7 @@
       </c>
       <c r="H2" s="3">
         <f>[1]NZ_Options!$B$33</f>
-        <v>54.75</v>
+        <v>55.4</v>
       </c>
       <c r="I2">
         <v>6.5000000000000002E-2</v>
@@ -65156,7 +65163,7 @@
       </c>
       <c r="B4" s="15">
         <f>VLOOKUP(A4,[1]Monthly_MTM!$R$32:$S$43,2,FALSE)</f>
-        <v>86192.459798957876</v>
+        <v>85960.747659706176</v>
       </c>
       <c r="C4" s="19" cm="1">
         <f t="array" ref="C4">_xlfn.XLOOKUP($A4,[1]Monthly_MTM!$R$47:$R$53,_xlfn.XLOOKUP(C$1,[1]Monthly_MTM!$S$46:$V$46,[1]Monthly_MTM!$S$47:$V$53))</f>
@@ -65168,11 +65175,11 @@
       </c>
       <c r="E4" s="19" cm="1">
         <f t="array" ref="E4">_xlfn.XLOOKUP($A4,[1]Monthly_MTM!$R$47:$R$53,_xlfn.XLOOKUP(E$1,[1]Monthly_MTM!$S$46:$V$46,[1]Monthly_MTM!$S$47:$V$53))</f>
-        <v>5.0111895231952251E-3</v>
+        <v>4.9977178871922195E-3</v>
       </c>
       <c r="F4" s="19" cm="1">
         <f t="array" ref="F4">_xlfn.XLOOKUP($A4,[1]Monthly_MTM!$R$47:$R$53,_xlfn.XLOOKUP(F$1,[1]Monthly_MTM!$S$46:$V$46,[1]Monthly_MTM!$S$47:$V$53))</f>
-        <v>-4.9671601036679084E-3</v>
+        <v>-4.980631739670914E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -65231,7 +65238,7 @@
       </c>
       <c r="B7" s="15">
         <f ca="1">VLOOKUP(A7,[1]Monthly_MTM!$R$32:$S$43,2,FALSE)</f>
-        <v>-1086495.9911314978</v>
+        <v>-1085221.7523948094</v>
       </c>
       <c r="C7" s="19" cm="1">
         <f t="array" ref="C7">_xlfn.XLOOKUP($A7,[1]Monthly_MTM!$R$47:$R$53,_xlfn.XLOOKUP(C$1,[1]Monthly_MTM!$S$46:$V$46,[1]Monthly_MTM!$S$47:$V$53))</f>
@@ -65243,11 +65250,11 @@
       </c>
       <c r="E7" s="19" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">_xlfn.XLOOKUP($A7,[1]Monthly_MTM!$R$47:$R$53,_xlfn.XLOOKUP(E$1,[1]Monthly_MTM!$S$46:$V$46,[1]Monthly_MTM!$S$47:$V$53))</f>
-        <v>-6.316837157741266E-2</v>
+        <v>-6.3094287929930784E-2</v>
       </c>
       <c r="F7" s="19" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">_xlfn.XLOOKUP($A7,[1]Monthly_MTM!$R$47:$R$53,_xlfn.XLOOKUP(F$1,[1]Monthly_MTM!$S$46:$V$46,[1]Monthly_MTM!$S$47:$V$53))</f>
-        <v>-3.3455512651070593E-2</v>
+        <v>-3.3381429003588717E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -65281,7 +65288,7 @@
       </c>
       <c r="B9" s="18">
         <f ca="1">SUM(B2:B8)</f>
-        <v>-1404228.0247086799</v>
+        <v>-1403185.4981112431</v>
       </c>
       <c r="C9" s="19" cm="1">
         <f t="array" ref="C9">_xlfn.XLOOKUP($A9,[1]Monthly_MTM!$R$47:$R$53,_xlfn.XLOOKUP(C$1,[1]Monthly_MTM!$S$46:$V$46,[1]Monthly_MTM!$S$47:$V$53))</f>
@@ -65293,11 +65300,11 @@
       </c>
       <c r="E9" s="19" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">_xlfn.XLOOKUP($A9,[1]Monthly_MTM!$R$47:$R$53,_xlfn.XLOOKUP(E$1,[1]Monthly_MTM!$S$46:$V$46,[1]Monthly_MTM!$S$47:$V$53))</f>
-        <v>-8.2059898069129583E-2</v>
+        <v>-0.11568545200085127</v>
       </c>
       <c r="F9" s="19" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">_xlfn.XLOOKUP($A9,[1]Monthly_MTM!$R$47:$R$53,_xlfn.XLOOKUP(F$1,[1]Monthly_MTM!$S$46:$V$46,[1]Monthly_MTM!$S$47:$V$53))</f>
-        <v>-7.1137418580398765E-2</v>
+        <v>-0.10476297251212045</v>
       </c>
     </row>
   </sheetData>
